--- a/word-document_matrix lee.xlsx
+++ b/word-document_matrix lee.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="200">
   <si>
     <t>group1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -70,13 +70,686 @@
   <si>
     <t>value5</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>calligraphy</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restaurant </t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>selfie</t>
+  </si>
+  <si>
+    <t>sympathy</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>artwork</t>
+  </si>
+  <si>
+    <t>childcare</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>contemporaryart</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>illustration</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>restaurent</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>oilpainting</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>fineart</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
+    <t>Chuncheon</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>Busan</t>
+  </si>
+  <si>
+    <t>artfair</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>Jeonju</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>typography</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>arthall</t>
+  </si>
+  <si>
+    <t>Jeonju</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>Sangdo-dong</t>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>illustration</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>childart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daegu</t>
+  </si>
+  <si>
+    <t>exhibition</t>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>photography</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>artcollector</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>westernart</t>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstractart</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>watercolor</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>orientalpainting</t>
+  </si>
+  <si>
+    <t>printmaking</t>
+  </si>
+  <si>
+    <t>loneliness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>war_memorial</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangnam</t>
+  </si>
+  <si>
+    <t>landscape</t>
+  </si>
+  <si>
+    <t>Mannyeon-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flute</t>
+  </si>
+  <si>
+    <t>poetry</t>
+  </si>
+  <si>
+    <t>artoftheday</t>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>HongikUniversity</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>artsy</t>
+  </si>
+  <si>
+    <t>Seonhwa-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daejeon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>selfie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>artwork</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>photography</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koreanart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>childcare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doan-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daegu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientalpainting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>artmuseum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dunsan-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>installationart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>artwork</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leeungno</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustration</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daeheung-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>golf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeju</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungnam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuseong-gu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bongmyeong-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eunhaeng-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newyork</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwanjeo-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongbokgung Palace</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMCA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangdae-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonsinheung-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>artfactory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>artlife</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensitivity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCAF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangwon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanbang-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolpyeong-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceramics</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>onedayclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>westernart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>daughter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongnam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>London</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insa-dong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,12 +775,6 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +791,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +812,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,11 +820,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -165,11 +872,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +1212,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="K1:L3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -526,708 +1250,1708 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>312.40057472989525</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>240.09596472823105</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43.50112006571544</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2735.2560300686232</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>154.28336600225649</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12">
+        <v>280.89899641785007</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200.57718390738461</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40.064042677988127</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1149.6608247163408</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>74.400180222854416</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12">
+        <v>173.96143881974362</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1">
+        <v>188.8474153533349</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39.871515556848841</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>703.4730846425681</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>72.996015388541295</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12">
+        <v>146.4813971086281</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1">
+        <v>62.283839865500241</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>34.993314807540017</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>345.76739688720619</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29.498161859896094</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>117.84499602229474</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="1">
+        <v>61.999926208145432</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22.980484959223062</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>331.61610970254173</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1">
+        <v>23.77473104492007</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
+        <v>113.5795435600933</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60.055849244657075</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="1">
+        <v>21.722976351855017</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>242.66301018544152</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1">
+        <v>22.422277291255</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14">
+        <v>150.28326026163279</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1">
+        <v>57.09110047818217</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20.666583022676086</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>133.63289963742562</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20.434950451641551</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9">
+        <v>101.58116930471232</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44.520403673043859</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18.20067153165418</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>124.76770184094951</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20.083029205888899</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="9">
+        <v>72.550919017943301</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41.330185148568994</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14.993869744715836</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>122.43777377158494</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18.349726993067648</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12">
+        <v>46.320708054491917</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36.148787209975161</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13.842000874246279</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1">
+        <v>97.949576261543712</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <v>17.277791020712929</v>
+      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="12">
+        <v>45.903514075389388</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35.694863776421286</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.940225931162519</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>84.866653485010687</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1">
+        <v>15.300775131861307</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43.631306239549502</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33.675094895256116</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.757515660373857</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>79.286056949359249</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1">
+        <v>13.606419546779442</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43.379566050628988</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32.990375468520078</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12.741009351938629</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1">
+        <v>73.602002014987562</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>16.00363177079976</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36.892498059215271</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32.261284177409202</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>11.69667148502856</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>69.559232852949876</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10.958769021009633</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="9">
+        <v>36.296955081556803</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="1">
+        <v>31.131946597755569</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11.113450614522991</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>66.790204210312112</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10.199536765843646</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14">
+        <v>34.706228972387699</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30.667235107725368</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10.89139089438302</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1">
+        <v>65.129953631979248</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10.041483279282861</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="14">
+        <v>33.285315948569099</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1">
+        <v>28.187528503093262</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10.374892442740199</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1">
+        <v>62.44415486778329</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.7399460784444081</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9">
+        <v>32.21850974994387</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1">
+        <v>26.631564819607931</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.6366165531004668</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>60.026298500863092</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9.6073209351804341</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1">
+        <v>31.4361052741368</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25.059376395875361</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.6134901637775432</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1">
+        <v>55.94627456866025</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8.6065337827658759</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.361682767401593</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1">
+        <v>22.17720402090443</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.9249677322222958</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45.294419875694452</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.473070757165571</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25.539795069134648</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19.945109384802429</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8.8970146752112651</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44.98030082605564</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.826192938849478</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1">
+        <v>23.841428541977308</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18.812847058985462</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.1626816571785881</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1">
+        <v>35.576759602142069</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7.1043569950212113</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23.680146456055809</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>17.157521123486479</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.5087507416853256</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35.300857103693659</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.056268775113808</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22.773809558830607</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16.57196189120145</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6.4729971885838502</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="1">
+        <v>31.724715056337061</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6.3467315551980166</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9">
+        <v>20.101623901261661</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16.50851403683534</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6.074301508149774</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1">
+        <v>31.596384806221831</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6.0863843555860377</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="9">
+        <v>19.659833451961958</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="1">
+        <v>16.183299019088579</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.0109469990496924</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1">
+        <v>31.001915926147738</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5.7567004139038138</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="9">
+        <v>19.01241325318745</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>13.634503248909249</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.7264939899019804</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1">
+        <v>29.212567868876519</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.4650958585543314</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1">
+        <v>16.474288126888169</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13.240570656080919</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.562822452039514</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27.65489557693477</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5.4260019308479244</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="9">
+        <v>15.85109586755072</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12.896744208462311</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.5368176250872363</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1">
+        <v>27.3275450729335</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4.8817986083167906</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14.711581546177634</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12.527692169171729</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.3405549342073373</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="1">
+        <v>25.720062075554029</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4.7430050925492848</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="9">
+        <v>13.93279863704571</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11.96033324123475</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.3230200392852494</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="1">
+        <v>25.02424682557459</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4.5749881262129897</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="9">
+        <v>12.14897313481711</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11.745491441567619</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.2478666122339019</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="1">
+        <v>24.900648253025629</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4.4453413230779741</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="9">
+        <v>11.68137877697648</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11.16573257143517</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.1908000523275497</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="1">
+        <v>24.612799297336871</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4.2491614288244266</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="9">
+        <v>11.424204840065499</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11.05956164225088</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.1210727323573053</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="1">
+        <v>24.282214423554741</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3.7765805830230512</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="9">
+        <v>10.97582112922788</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10.90361871289798</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.0581373127991904</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="1">
+        <v>23.668127966971291</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3.6662939684172589</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="9">
+        <v>10.305151080959311</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10.626432836297271</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.0205421849225518</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="1">
+        <v>23.001427412011981</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3.6565781075907888</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="9">
+        <v>9.7783403632939176</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10.3369273572727</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.0073331852324703</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>22.949964242143171</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3.6087203545264281</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="9">
+        <v>9.265730749667604</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10.164124847588701</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.8044699343091786</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="1">
+        <v>22.814164894536979</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.3541098773909068</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="9">
+        <v>9.0566161560862977</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9.9205384932480776</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.7407259242432733</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1">
+        <v>22.15916171011138</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3.3490622536821748</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="9">
+        <v>8.9297325773835912</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.8454283185817868</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.7084418802814394</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="1">
+        <v>21.923569235654359</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.195267760250351</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="9">
+        <v>8.8657355386385923</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.7422777675493695</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4.6888794541139358</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>21.354370915360441</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3.1581513948198929</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="9">
+        <v>8.7735010563422833</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9.6396867864075286</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.5785826143722073</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="1">
+        <v>19.807853760266259</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3.022999046697795</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="9">
+        <v>8.6910953693870603</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.5761620541928423</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.5707845132371112</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="1">
+        <v>19.472085537471621</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.9014303458416228</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="A45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="9">
+        <v>8.6391339851546949</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.5554686376384321</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.5660299795030683</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1">
+        <v>18.880459332898049</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.894948940540885</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="9">
+        <v>8.2362547277358811</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.3782220121582114</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.5563710799221537</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="1">
+        <v>18.589269871433121</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.8820957122055462</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="9">
+        <v>8.1475021239690495</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9.0990854639962553</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.4965075614664798</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="1">
+        <v>18.26118218589459</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.8783502069519069</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="9">
+        <v>8.0290910963666757</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.9577945909947267</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.472511978431692</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="1">
+        <v>18.221384558787861</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.805206879752228</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="A49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="9">
+        <v>7.9721765819813264</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.7570336620086646</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.4236605450881772</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17.606492767544552</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2.6717104286053082</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="9">
+        <v>7.6446032333034539</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.6079171374540717</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.2806209752235169</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="1">
+        <v>16.012643193300558</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.5488620888683671</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9">
+        <v>7.5463057841008059</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8.5484628428832998</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4.1474556531973787</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15.91654766138671</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J51" s="9">
+        <v>2.5106914860841281</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12">
       <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
@@ -1239,7 +2963,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
@@ -1251,7 +2975,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
@@ -1263,7 +2987,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="4"/>
@@ -1275,7 +2999,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="4"/>
@@ -1287,7 +3011,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
@@ -1299,7 +3023,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
@@ -1311,7 +3035,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -1344,7 +3068,7 @@
       <c r="H64" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
